--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560335/JX560335_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560335/JX560335_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.8931459122</v>
+        <v>45441.83341147636</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1165g&gt;c']</t>
+          <t>['1269_1300del', '1141_1181del', '1185_1220del', '1158_1233del', '1111_1248del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89314594691</v>
+        <v>45441.83341150528</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['179_183insttac']</t>
+          <t>['166_315del', '174_213del', '248_287inscttatttctgaacttccatccactggccgacttaccgcg', '215_291insgtccactgtacaagatccgagaggattcgggccgtgcagtcaaaggttcaaccaataagggtgcccccaagagtcc', '200_223insgttaatcaactcgctgaggagag']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89314597585</v>
+        <v>45441.83341154</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['5038c&gt;g']</t>
+          <t>['5087_5172insccgagacgagtccactgtagtgaagtggtcagatatgggccgacggataatcagatgccttagaagttccgcgatgtctccggac', '5023_5059insgtaaggatgaccacatcgacggctccaaccgctacc', '5072_5185insattatggtataacttctgggggtttggcttgattgcatctgcggaatcttccggaccggggtcgcgacacggcaaaaaatctaagccgaaagccgtatttccgaaaccggtca', '5117_5230insataaaagagaattttctctgggcgaggtgcaagccataccgcatatcgcagcctacagatgtccatgcccagcggcagataaattgatttgtacaatggtccatcaaatatgg', '5060_5184instagtgtactggactaggttgagtcgcacagcggggtgtgcatcactttcttattaccgtcagccgctagtcctggccgagcgatgctgattatttttgtgtgcgtgcttccgctgtgatatcag']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89314601057</v>
+        <v>45441.83341156895</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1075_1075del']</t>
+          <t>['1265_1408del', '1228_1262insgacggattgccgaattccagtcgtgataccgtgg', '1199_1224del', '1153_1287insgggatagaggaactgagcagttttcatgagatggaagtgccccgggtctatttgccctatactcgttctacccatcattattcctagacctatgagtccttgaggataccaaaatcctcgtattggattcgtag', '1307_1363del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['238_239del']</t>
+          <t>['178_260insgaaacgctcaggtgttgtatacgtcactcgggctatgcccgtgtgtcgtcaagtggggactttggagagcgaatttaatcag', '153_226del', '217_326del', '187_242del', '153_172del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.8931460395</v>
+        <v>45441.83341159788</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1118_1123insgaggc']</t>
+          <t>['1109_1256insgcacggatctaccgccgcccaagtgtcaccatatttctgtccaagccggttggtcgagtacccaggcataacattactgattgtcaatgtcttatagcttgcagcagagtgttgcattcctacctaactactatccttatatagggt', '1202_1313insatcggcgctgctatttacgtagtgagaaccacctaacaaagcaccaacgcgctgacagagggcatgatggttttattcaggaaatggaccactacagtctgattgcgagaa', '1089_1170del', '1158_1293insagttagttagaactagtaccaaactgtgtaattgcactgggcaatttcgagtcaaacgagcctgatcactagtgcagtgagctcaggcgaggaaagcatttcatgatggaggcagtaaggtcccttcaacgcagc', '1197_1325del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['5114t&gt;g']</t>
+          <t>['5118_5197insacttgagtagcgtcgttgttattgtcaagctccataggacaaatagtcagtcatggagcagcgaaagttactaggctaa', '5074_5161insggctcgttcactcacatggggaatcgccctctaatgctgcgctcatctttctctctacaaggatgcatagaacacgtttgaattgcg', '5114_5135del', '5072_5165del', '5087_5099del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89314606265</v>
+        <v>45441.83341162102</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['204_205del']</t>
+          <t>['186_279insatacgacacagatcacctgagctctcttcgtcgtgacattggcaatgcccgatcagcggcgccacgggaaagcaggtactaaacacaagtagt', '156_222insctattagtcccaatcaacgcgatgttgactctggggtgctacccttcaactgtttgctgacttagg', '222_340del', '171_251del', '159_300insacctataggggctttctcagtgtacagggggataggctctggcatgaatcgttctgatgcacatttattcgcacagtggaggaaggtatgatgagcaatgaataacacccaccccagcggcttatgttaagacgccggtgt']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['5084_5087instta']</t>
+          <t>['5077_5096del', '5085_5117insttgcgcatttaggtaactcgacttagtgccaa', '5063_5078insgaagtgctattattc', '5080_5092insatagagcctata', '5045_5101insgtacacgtagacccgcgccaactgtgcaaatcgaggggggcagaattacgcctggg']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89314609158</v>
+        <v>45441.83341164995</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1162a&gt;c']</t>
+          <t>['1112_1191del', '1100_1118instggtggtttatccttgcc', '1182_1317del', '1145_1268del', '1312_1322instggcttggtt']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['181_186inscaaca']</t>
+          <t>['240_258del', '190_238insatatcttactgtctctaaaactgttttggacgtactccttagaggagg', '218_366instatccgatacgcaatgttcccctcgctggctccggagcccgttgcaaggttagtgtgatccgctcgcagctacataatgtccggctttcaaaaaaggcatctccgcttttggagggacaatctgagggtcgtcttattcccgctgtcg', '166_253insgaaggtactacatgtacctgagaaaagaatcattaaggtgctggacctggtcttcacacttgattccgtgcattagtgtcggcgatg', '169_245insgacaggggttgcccagttagacacgcggggcagctaaatgatatcagaaggtctagtgtttatcatctaacagcac']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['5110_5112del']</t>
+          <t>['5048_5164inscctggtcatgaattttcacgctacgaaagcgttagagaataaactacaaagttaggaggtttgtgcttaagggattggtcaacaatgcctcttatcgagattgcggatttacctgc', '5075_5126insggaccggtcgctatccgtttaatctcactcacgcgcgggcatcagaaacag', '5032_5133del', '5028_5164del', '5099_5129insgtgaaggtcctgagcgaagcttttcccggc']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89314612052</v>
+        <v>45441.8334116731</v>
       </c>
     </row>
   </sheetData>
